--- a/static/related/eventhub/Carrega_Masiva_Usuaris_Aplicacions.xlsx
+++ b/static/related/eventhub/Carrega_Masiva_Usuaris_Aplicacions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ts.accenture.com/sites/CTTI417/Shared Documents/General/03-Eventhub/02-Proyecto Herramienta Autoservicio/06-Outsystems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h.lopez.lopez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{390F6F67-6A7F-4176-9618-B3956B72E6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB597AD-FC93-49FD-B368-CEDBF84D8B19}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A288CD-84DC-4873-A692-6DDFEBEC19AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{820EFD6F-946B-49F5-B6A2-9B3F0A95CC8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Permisos" sheetId="1" r:id="rId1"/>
+    <sheet name="Validacions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,12 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>App</t>
+  </si>
+  <si>
+    <t>USERNAME: Ha d'exixtir a Outsystems i ha de ser un DNI</t>
   </si>
 </sst>
 </file>
@@ -112,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -122,6 +126,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFACAF9-3FC3-4809-BF44-10347F3FE1AA}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -550,6 +555,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4156E42E-1037-4578-84CE-68D546DC88F8}">
+  <dimension ref="A2:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -560,8 +612,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010080B8EE705A6FB640A392FA9120FC9746" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6828a790ed4f63ebee65ce7465358a6e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c19636ad-4cc7-4ec7-835d-9d0377047e68" xmlns:ns3="7f20e183-2084-488f-808b-08e8c83328e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2ac3997074c8daa615ebcd9163cb61e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080B8EE705A6FB640A392FA9120FC9746" ma:contentTypeVersion="6" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="1cb15f47e4f9490f6ecdf2c8401f2011">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c19636ad-4cc7-4ec7-835d-9d0377047e68" xmlns:ns3="7f20e183-2084-488f-808b-08e8c83328e9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19cdb9f05606de7859ce58132a53ad6a" ns2:_="" ns3:_="">
     <xsd:import namespace="c19636ad-4cc7-4ec7-835d-9d0377047e68"/>
     <xsd:import namespace="7f20e183-2084-488f-808b-08e8c83328e9"/>
     <xsd:element name="properties">
@@ -610,7 +662,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7f20e183-2084-488f-808b-08e8c83328e9" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Compartit amb" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -629,7 +681,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="S'ha compartit amb detalls" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -646,8 +698,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipus de contingut"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Títol"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -751,16 +803,37 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{888F73D3-0BB1-4C7C-A674-B8B07FF93AF2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35BDD4DD-E074-4D66-B5A1-D60380E0AFC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c19636ad-4cc7-4ec7-835d-9d0377047e68"/>
+    <ds:schemaRef ds:uri="7f20e183-2084-488f-808b-08e8c83328e9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2409505-8638-4281-A55E-23AA5C2862F3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7f20e183-2084-488f-808b-08e8c83328e9"/>
+    <ds:schemaRef ds:uri="c19636ad-4cc7-4ec7-835d-9d0377047e68"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d0ee1ac-0803-4a77-b07a-92d613f33fbe"/>
-    <ds:schemaRef ds:uri="013407f8-56c1-4544-92db-1297f3f5d8cf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
